--- a/CASUAL/LA ONT/DE LARA, GRACE.xlsx
+++ b/CASUAL/LA ONT/DE LARA, GRACE.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="67">
   <si>
     <t>PERIOD</t>
   </si>
@@ -227,6 +227,15 @@
   </si>
   <si>
     <t>UT(0-0-56)</t>
+  </si>
+  <si>
+    <t>UT(0-1-55)</t>
+  </si>
+  <si>
+    <t>UT(0-0-25)</t>
+  </si>
+  <si>
+    <t>UT(0-0-6)</t>
   </si>
 </sst>
 </file>
@@ -608,6 +617,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -620,20 +638,11 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1089,7 +1098,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1132,7 +1141,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1196,7 +1205,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1256,7 +1265,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1322,7 +1331,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1385,7 +1394,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1483,7 +1492,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1542,7 +1551,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1607,7 +1616,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1650,7 +1659,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1725,7 +1734,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1911,7 +1920,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1977,7 +1986,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2035,7 +2044,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2101,7 +2110,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2157,7 +2166,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2232,7 +2241,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2275,7 +2284,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2341,7 +2350,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2397,7 +2406,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2495,7 +2504,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2558,7 +2567,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2624,7 +2633,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K103" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K105" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3002,12 +3011,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K103"/>
+  <dimension ref="A2:K105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
       <pane ySplit="3720" topLeftCell="A24" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="F43" sqref="F43"/>
+      <selection pane="bottomLeft" activeCell="E47" sqref="E47:F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3037,14 +3046,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3055,16 +3064,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="53">
+      <c r="F3" s="56">
         <v>44105</v>
       </c>
-      <c r="G3" s="54"/>
+      <c r="G3" s="50"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3077,14 +3086,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="57"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="51"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3110,18 +3119,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58" t="s">
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3168,7 +3177,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>30.882999999999999</v>
+        <v>30.579000000000001</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3780,28 +3789,28 @@
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="39">
-        <v>44835</v>
-      </c>
-      <c r="B38" s="20"/>
-      <c r="C38" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D38" s="38"/>
+      <c r="A38" s="39"/>
+      <c r="B38" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" s="13"/>
+      <c r="D38" s="38">
+        <v>1.2E-2</v>
+      </c>
       <c r="E38" s="9"/>
       <c r="F38" s="20"/>
-      <c r="G38" s="13">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G38" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H38" s="38"/>
       <c r="I38" s="9"/>
       <c r="J38" s="11"/>
-      <c r="K38" s="20"/>
+      <c r="K38" s="48"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="39">
-        <v>44866</v>
+        <v>44835</v>
       </c>
       <c r="B39" s="20"/>
       <c r="C39" s="13">
@@ -3821,16 +3830,16 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="39">
-        <v>44896</v>
+        <v>44866</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="C40" s="13">
         <v>1.25</v>
       </c>
       <c r="D40" s="38">
-        <v>4</v>
+        <v>5.2000000000000011E-2</v>
       </c>
       <c r="E40" s="9"/>
       <c r="F40" s="20"/>
@@ -3841,39 +3850,43 @@
       <c r="H40" s="38"/>
       <c r="I40" s="9"/>
       <c r="J40" s="11"/>
-      <c r="K40" s="20" t="s">
-        <v>54</v>
-      </c>
+      <c r="K40" s="20"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="39"/>
+      <c r="A41" s="39">
+        <v>44896</v>
+      </c>
       <c r="B41" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C41" s="13"/>
+        <v>53</v>
+      </c>
+      <c r="C41" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D41" s="38">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E41" s="9"/>
       <c r="F41" s="20"/>
-      <c r="G41" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G41" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H41" s="38"/>
       <c r="I41" s="9"/>
       <c r="J41" s="11"/>
-      <c r="K41" s="48">
-        <v>44904</v>
+      <c r="K41" s="20" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="47" t="s">
-        <v>44</v>
-      </c>
-      <c r="B42" s="20"/>
+      <c r="A42" s="39"/>
+      <c r="B42" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="C42" s="13"/>
-      <c r="D42" s="38"/>
+      <c r="D42" s="38">
+        <v>1</v>
+      </c>
       <c r="E42" s="9"/>
       <c r="F42" s="20"/>
       <c r="G42" s="13" t="str">
@@ -3883,43 +3896,42 @@
       <c r="H42" s="38"/>
       <c r="I42" s="9"/>
       <c r="J42" s="11"/>
-      <c r="K42" s="20"/>
+      <c r="K42" s="48">
+        <v>44904</v>
+      </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="39">
-        <v>44957</v>
-      </c>
-      <c r="B43" s="20"/>
-      <c r="C43" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D43" s="38"/>
+      <c r="A43" s="39"/>
+      <c r="B43" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C43" s="13"/>
+      <c r="D43" s="38">
+        <v>0.24</v>
+      </c>
       <c r="E43" s="9"/>
       <c r="F43" s="20"/>
-      <c r="G43" s="13">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G43" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H43" s="38"/>
       <c r="I43" s="9"/>
       <c r="J43" s="11"/>
-      <c r="K43" s="20"/>
+      <c r="K43" s="48"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="39">
-        <f>EDATE(A43,1)</f>
-        <v>44985</v>
+      <c r="A44" s="47" t="s">
+        <v>44</v>
       </c>
       <c r="B44" s="20"/>
-      <c r="C44" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C44" s="13"/>
       <c r="D44" s="38"/>
       <c r="E44" s="9"/>
       <c r="F44" s="20"/>
-      <c r="G44" s="13">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G44" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H44" s="38"/>
       <c r="I44" s="9"/>
@@ -3928,11 +3940,9 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="39">
-        <v>45016</v>
-      </c>
-      <c r="B45" s="20" t="s">
-        <v>47</v>
-      </c>
+        <v>44957</v>
+      </c>
+      <c r="B45" s="20"/>
       <c r="C45" s="13">
         <v>1.25</v>
       </c>
@@ -3946,37 +3956,36 @@
       <c r="H45" s="38"/>
       <c r="I45" s="9"/>
       <c r="J45" s="11"/>
-      <c r="K45" s="20" t="s">
-        <v>58</v>
-      </c>
+      <c r="K45" s="20"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="39"/>
-      <c r="B46" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C46" s="13"/>
-      <c r="D46" s="38">
-        <v>1</v>
-      </c>
+      <c r="A46" s="39">
+        <f>EDATE(A45,1)</f>
+        <v>44985</v>
+      </c>
+      <c r="B46" s="20"/>
+      <c r="C46" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D46" s="38"/>
       <c r="E46" s="9"/>
       <c r="F46" s="20"/>
-      <c r="G46" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G46" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H46" s="38"/>
       <c r="I46" s="9"/>
       <c r="J46" s="11"/>
-      <c r="K46" s="48">
-        <v>45013</v>
-      </c>
+      <c r="K46" s="20"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="39">
-        <v>45046</v>
-      </c>
-      <c r="B47" s="20"/>
+        <v>45016</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C47" s="13">
         <v>1.25</v>
       </c>
@@ -3990,35 +3999,37 @@
       <c r="H47" s="38"/>
       <c r="I47" s="9"/>
       <c r="J47" s="11"/>
-      <c r="K47" s="20"/>
+      <c r="K47" s="20" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="39">
-        <v>45077</v>
-      </c>
-      <c r="B48" s="20"/>
-      <c r="C48" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D48" s="38"/>
+      <c r="A48" s="39"/>
+      <c r="B48" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C48" s="13"/>
+      <c r="D48" s="38">
+        <v>1</v>
+      </c>
       <c r="E48" s="9"/>
       <c r="F48" s="20"/>
-      <c r="G48" s="13">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G48" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H48" s="38"/>
       <c r="I48" s="9"/>
       <c r="J48" s="11"/>
-      <c r="K48" s="20"/>
+      <c r="K48" s="48">
+        <v>45013</v>
+      </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="39">
-        <v>45107</v>
-      </c>
-      <c r="B49" s="20" t="s">
-        <v>47</v>
-      </c>
+        <v>45046</v>
+      </c>
+      <c r="B49" s="20"/>
       <c r="C49" s="13">
         <v>1.25</v>
       </c>
@@ -4032,13 +4043,11 @@
       <c r="H49" s="38"/>
       <c r="I49" s="9"/>
       <c r="J49" s="11"/>
-      <c r="K49" s="48">
-        <v>45112</v>
-      </c>
+      <c r="K49" s="20"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="39">
-        <v>45138</v>
+        <v>45077</v>
       </c>
       <c r="B50" s="20"/>
       <c r="C50" s="13">
@@ -4058,9 +4067,11 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="39">
-        <v>45169</v>
-      </c>
-      <c r="B51" s="20"/>
+        <v>45107</v>
+      </c>
+      <c r="B51" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C51" s="13">
         <v>1.25</v>
       </c>
@@ -4074,11 +4085,13 @@
       <c r="H51" s="38"/>
       <c r="I51" s="9"/>
       <c r="J51" s="11"/>
-      <c r="K51" s="20"/>
+      <c r="K51" s="48">
+        <v>45112</v>
+      </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="39">
-        <v>45199</v>
+        <v>45138</v>
       </c>
       <c r="B52" s="20"/>
       <c r="C52" s="13">
@@ -4098,11 +4111,9 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="39">
-        <v>45230</v>
-      </c>
-      <c r="B53" s="20" t="s">
-        <v>47</v>
-      </c>
+        <v>45169</v>
+      </c>
+      <c r="B53" s="20"/>
       <c r="C53" s="13">
         <v>1.25</v>
       </c>
@@ -4116,23 +4127,17 @@
       <c r="H53" s="38"/>
       <c r="I53" s="9"/>
       <c r="J53" s="11"/>
-      <c r="K53" s="48">
-        <v>45209</v>
-      </c>
+      <c r="K53" s="20"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="39">
-        <v>45260</v>
-      </c>
-      <c r="B54" s="20" t="s">
-        <v>53</v>
-      </c>
+        <v>45199</v>
+      </c>
+      <c r="B54" s="20"/>
       <c r="C54" s="13">
         <v>1.25</v>
       </c>
-      <c r="D54" s="38">
-        <v>4</v>
-      </c>
+      <c r="D54" s="38"/>
       <c r="E54" s="9"/>
       <c r="F54" s="20"/>
       <c r="G54" s="13">
@@ -4142,55 +4147,65 @@
       <c r="H54" s="38"/>
       <c r="I54" s="9"/>
       <c r="J54" s="11"/>
-      <c r="K54" s="20" t="s">
-        <v>60</v>
-      </c>
+      <c r="K54" s="20"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="39">
-        <v>45291</v>
+        <v>45230</v>
       </c>
       <c r="B55" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C55" s="13"/>
+      <c r="C55" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D55" s="38"/>
       <c r="E55" s="9"/>
       <c r="F55" s="20"/>
-      <c r="G55" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G55" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H55" s="38"/>
       <c r="I55" s="9"/>
       <c r="J55" s="11"/>
       <c r="K55" s="48">
+        <v>45209</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="39">
         <v>45260</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="47" t="s">
-        <v>61</v>
-      </c>
-      <c r="B56" s="20"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="38"/>
+      <c r="B56" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C56" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D56" s="38">
+        <v>4</v>
+      </c>
       <c r="E56" s="9"/>
       <c r="F56" s="20"/>
-      <c r="G56" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G56" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H56" s="38"/>
       <c r="I56" s="9"/>
       <c r="J56" s="11"/>
-      <c r="K56" s="48"/>
+      <c r="K56" s="20" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="39">
-        <v>45322</v>
-      </c>
-      <c r="B57" s="20"/>
+        <v>45291</v>
+      </c>
+      <c r="B57" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C57" s="13"/>
       <c r="D57" s="38"/>
       <c r="E57" s="9"/>
@@ -4202,11 +4217,13 @@
       <c r="H57" s="38"/>
       <c r="I57" s="9"/>
       <c r="J57" s="11"/>
-      <c r="K57" s="20"/>
+      <c r="K57" s="48">
+        <v>45260</v>
+      </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="39">
-        <v>45351</v>
+      <c r="A58" s="47" t="s">
+        <v>61</v>
       </c>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -4220,10 +4237,12 @@
       <c r="H58" s="38"/>
       <c r="I58" s="9"/>
       <c r="J58" s="11"/>
-      <c r="K58" s="20"/>
+      <c r="K58" s="48"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="39"/>
+      <c r="A59" s="39">
+        <v>45322</v>
+      </c>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
       <c r="D59" s="38"/>
@@ -4239,7 +4258,9 @@
       <c r="K59" s="20"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="39"/>
+      <c r="A60" s="39">
+        <v>45351</v>
+      </c>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
       <c r="D60" s="38"/>
@@ -4927,34 +4948,66 @@
       <c r="K102" s="20"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="40"/>
-      <c r="B103" s="15"/>
-      <c r="C103" s="41"/>
-      <c r="D103" s="42"/>
+      <c r="A103" s="39"/>
+      <c r="B103" s="20"/>
+      <c r="C103" s="13"/>
+      <c r="D103" s="38"/>
       <c r="E103" s="9"/>
-      <c r="F103" s="15"/>
-      <c r="G103" s="41" t="str">
+      <c r="F103" s="20"/>
+      <c r="G103" s="13" t="str">
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H103" s="42"/>
+      <c r="H103" s="38"/>
       <c r="I103" s="9"/>
-      <c r="J103" s="12"/>
-      <c r="K103" s="15"/>
+      <c r="J103" s="11"/>
+      <c r="K103" s="20"/>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104" s="39"/>
+      <c r="B104" s="20"/>
+      <c r="C104" s="13"/>
+      <c r="D104" s="38"/>
+      <c r="E104" s="9"/>
+      <c r="F104" s="20"/>
+      <c r="G104" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H104" s="38"/>
+      <c r="I104" s="9"/>
+      <c r="J104" s="11"/>
+      <c r="K104" s="20"/>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105" s="40"/>
+      <c r="B105" s="15"/>
+      <c r="C105" s="41"/>
+      <c r="D105" s="42"/>
+      <c r="E105" s="9"/>
+      <c r="F105" s="15"/>
+      <c r="G105" s="41" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H105" s="42"/>
+      <c r="I105" s="9"/>
+      <c r="J105" s="12"/>
+      <c r="K105" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5053,11 +5106,11 @@
       <c r="D3"/>
       <c r="E3"/>
       <c r="F3">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="G3" s="46">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.11700000000000001</v>
+        <v>1.2E-2</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="34">
